--- a/reports_pdf/brasil/risk-pt/Cases/06-08-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/06-08-2020_brasil_report_EPG.xlsx
@@ -15140,7 +15140,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>310.3111229191785</v>
+        <v>310.3216427351839</v>
       </c>
     </row>
     <row r="822">
@@ -26948,7 +26948,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>466.1822299749957</v>
+        <v>471.6297518643361</v>
       </c>
     </row>
     <row r="1478">
@@ -53516,7 +53516,7 @@
         </is>
       </c>
       <c r="D2953" t="n">
-        <v>384.2329399809329</v>
+        <v>451.9997376513355</v>
       </c>
     </row>
     <row r="2954">
@@ -59402,7 +59402,7 @@
         </is>
       </c>
       <c r="D3280" t="n">
-        <v>320.2783445448726</v>
+        <v>355.1310864873439</v>
       </c>
     </row>
     <row r="3281">
@@ -59420,7 +59420,7 @@
         </is>
       </c>
       <c r="D3281" t="n">
-        <v>264.2401650441656</v>
+        <v>280.0554858724945</v>
       </c>
     </row>
     <row r="3282">
@@ -68258,7 +68258,7 @@
         </is>
       </c>
       <c r="D3772" t="n">
-        <v>1264.582705948803</v>
+        <v>1462.771388940679</v>
       </c>
     </row>
     <row r="3773">
@@ -68276,7 +68276,7 @@
         </is>
       </c>
       <c r="D3773" t="n">
-        <v>1224.865406227595</v>
+        <v>1485.245703125192</v>
       </c>
     </row>
     <row r="3774">
@@ -80066,7 +80066,7 @@
         </is>
       </c>
       <c r="D4428" t="n">
-        <v>569.3232589064313</v>
+        <v>711.9027253045781</v>
       </c>
     </row>
     <row r="4429">
@@ -80084,7 +80084,7 @@
         </is>
       </c>
       <c r="D4429" t="n">
-        <v>615.718781805507</v>
+        <v>676.282650267648</v>
       </c>
     </row>
     <row r="4430">
@@ -83018,7 +83018,7 @@
         </is>
       </c>
       <c r="D4592" t="n">
-        <v>309.4806738178568</v>
+        <v>311.3563659460199</v>
       </c>
     </row>
     <row r="4593">
@@ -83036,7 +83036,7 @@
         </is>
       </c>
       <c r="D4593" t="n">
-        <v>307.1671179420727</v>
+        <v>309.5797911535751</v>
       </c>
     </row>
   </sheetData>
